--- a/output/No existen.xlsx
+++ b/output/No existen.xlsx
@@ -9,23 +9,70 @@
   <sheets>
     <sheet name="url1" sheetId="1" r:id="rId1"/>
     <sheet name="url2" sheetId="2" r:id="rId2"/>
-    <sheet name="url3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
-  <si>
-    <t>No existen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/</t>
+  </si>
+  <si>
+    <t>vinculo al diario o gaceta oficial</t>
+  </si>
+  <si>
+    <t>políticas, lineamientos y manuales</t>
+  </si>
+  <si>
+    <t>informacion pública y/o relevante</t>
+  </si>
+  <si>
+    <t>descripción general del menú participa</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/</t>
+  </si>
+  <si>
+    <t>mapas y cartas descriptivas de los procesos</t>
+  </si>
+  <si>
+    <t>directorio institucional</t>
+  </si>
+  <si>
+    <t>directorio de asociaciones, agremiaciones</t>
+  </si>
+  <si>
+    <t>procedimientos que se siguen para tomar decisiones</t>
+  </si>
+  <si>
+    <t>servicio al público, normas, formularios y protocolos de atención</t>
+  </si>
+  <si>
+    <t>diagnóstico e identificación de problemas</t>
+  </si>
+  <si>
+    <t>instrumentos de gestión de la información</t>
+  </si>
+  <si>
+    <t>información adicional</t>
+  </si>
+  <si>
+    <t>procesos de recaudo de rentas locales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +87,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,16 +128,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,54 +436,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>